--- a/data/trans_camb/P16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,53</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,04; 24,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,47; 11,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,19; -1,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,34; 4,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; 3,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; 1,14</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,19%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,94; 56,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,97; 28,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,99; -2,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,63; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,45; 5,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,62; 0,17</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,75; 7,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,73; 5,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,41; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,13; -2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; 1,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,05; -4,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,43%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,51; 12,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,91; 9,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,15; 6,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,88; -4,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,88; 1,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,06; -7,76</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,84</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,47; 8,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,29; -6,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,46; -2,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,09; -9,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; -0,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,99; -11,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,16%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,73; 13,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,12; -10,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; -3,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,37; -11,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; -0,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,98; -15,46</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,82</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,52; 13,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,63; 7,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,23; 12,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; 3,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 9,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 0,91</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,14%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,02; 19,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,61; 11,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; 17,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 3,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,04; 13,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,65; 1,49</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,99</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 9,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; -5,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,2; 5,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 4,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; -0,05</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,13%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 11,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,31; -6,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 6,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,95; 9,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,0; 5,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,74; -0,06</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 8,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 4,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 4,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; -1,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 4,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; -0,71</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,73%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 9,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 5,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 4,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; -1,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 4,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; -0,78</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,32</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; 3,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -5,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; -0,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; -4,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; -0,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; -6,29</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,23%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 5,22</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; -6,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,19; -1,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,37; -5,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; -0,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; -7,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-4,23</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 8,43</t>
+          <t>-5,08; 12,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 4,46</t>
+          <t>-16,94; 5,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,28</t>
+          <t>-4,07; 7,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -1,06</t>
+          <t>-10,46; 3,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,25</t>
+          <t>-3,19; 6,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -0,71</t>
+          <t>-9,98; 1,48</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-4,56%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 9,79</t>
+          <t>-5,29; 14,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 5,18</t>
+          <t>-17,9; 6,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,69</t>
+          <t>-4,31; 9,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -1,14</t>
+          <t>-11,04; 3,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,62</t>
+          <t>-3,29; 7,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -0,78</t>
+          <t>-10,54; 1,57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-4,69</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,94</t>
+          <t>-6,52; 10,95</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -5,05</t>
+          <t>-8,47; 9,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -0,93</t>
+          <t>-3,75; 4,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -4,14</t>
+          <t>-12,62; -0,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,19</t>
+          <t>-3,25; 4,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -6,29</t>
+          <t>-10,23; -0,09</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>-4,91%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-6,9; 12,92</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 11,24</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 4,57</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; -0,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 4,79</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; -0,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-11,04</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-4,45</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-8,24</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-9,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 3,94</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-16,68; -5,05</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; -0,93</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; -4,14</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; -0,19</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; -6,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-14,23%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-5,31%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-9,83%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-3,99%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-11,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-8,02; 5,22</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-20,76; -6,77</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-9,19; -1,12</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-14,37; -5,04</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-7,75; -0,24</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-15,0; -7,8</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 24,89</t>
+          <t>-18,24; 26,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 11,8</t>
+          <t>-33,15; 10,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -1,29</t>
+          <t>-30,82; -1,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 4,1</t>
+          <t>-26,18; 6,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 3,61</t>
+          <t>-20,75; 3,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 1,14</t>
+          <t>-25,45; -0,35</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 56,54</t>
+          <t>-25,95; 58,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 28,02</t>
+          <t>-48,61; 24,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,99; -2,55</t>
+          <t>-40,36; -3,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 6,29</t>
+          <t>-35,05; 9,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 5,94</t>
+          <t>-29,13; 5,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 0,17</t>
+          <t>-36,03; -0,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 7,16</t>
+          <t>-23,73; 7,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 5,4</t>
+          <t>-25,58; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 4,35</t>
+          <t>-19,81; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -2,85</t>
+          <t>-29,99; -5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 1,04</t>
+          <t>-17,24; 1,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,05; -4,86</t>
+          <t>-24,07; -4,66</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 12,55</t>
+          <t>-31,78; 12,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 9,73</t>
+          <t>-34,59; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 6,7</t>
+          <t>-25,72; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -4,56</t>
+          <t>-39,55; -8,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 1,75</t>
+          <t>-23,5; 1,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,06; -7,76</t>
+          <t>-32,79; -7,49</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 8,63</t>
+          <t>-16,8; 10,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,29; -6,3</t>
+          <t>-33,15; -6,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; -2,79</t>
+          <t>-20,13; -2,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -9,25</t>
+          <t>-27,63; -8,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -0,57</t>
+          <t>-15,8; -0,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,99; -11,82</t>
+          <t>-28,34; -12,11</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 13,05</t>
+          <t>-21,27; 15,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,12; -10,24</t>
+          <t>-42,69; -9,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -3,99</t>
+          <t>-23,42; -3,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,37; -11,82</t>
+          <t>-32,43; -11,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,85; -0,76</t>
+          <t>-19,23; -1,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,98; -15,46</t>
+          <t>-34,45; -16,24</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 13,13</t>
+          <t>-15,72; 12,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 7,46</t>
+          <t>-19,39; 6,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 12,41</t>
+          <t>-6,41; 13,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 3,04</t>
+          <t>-19,25; 2,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 9,32</t>
+          <t>-7,38; 8,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 0,91</t>
+          <t>-16,29; -0,15</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 19,83</t>
+          <t>-18,7; 18,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 11,06</t>
+          <t>-23,32; 9,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 17,7</t>
+          <t>-7,52; 17,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 3,81</t>
+          <t>-22,98; 2,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 13,31</t>
+          <t>-9,02; 11,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 1,49</t>
+          <t>-19,94; -0,23</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 9,26</t>
+          <t>-12,17; 9,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-28,69; -5,02</t>
+          <t>-28,76; -4,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 5,17</t>
+          <t>-13,22; 5,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 8,01</t>
+          <t>-9,34; 7,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 4,15</t>
+          <t>-9,41; 4,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,08; -0,05</t>
+          <t>-14,67; 0,2</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 11,65</t>
+          <t>-13,78; 12,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,31; -6,19</t>
+          <t>-32,06; -5,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 6,26</t>
+          <t>-14,85; 6,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 9,76</t>
+          <t>-10,42; 9,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 5,04</t>
+          <t>-10,54; 5,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -0,06</t>
+          <t>-16,66; 0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 12,81</t>
+          <t>-5,15; 12,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 5,94</t>
+          <t>-16,35; 7,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 7,96</t>
+          <t>-4,05; 7,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 3,18</t>
+          <t>-10,24; 3,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,75</t>
+          <t>-3,02; 6,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 1,48</t>
+          <t>-10,67; 1,12</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 14,96</t>
+          <t>-5,24; 14,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 6,53</t>
+          <t>-17,2; 8,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 9,14</t>
+          <t>-4,24; 8,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 3,54</t>
+          <t>-10,83; 3,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 7,58</t>
+          <t>-3,08; 7,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 1,57</t>
+          <t>-11,33; 1,17</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 10,95</t>
+          <t>-7,34; 11,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 9,52</t>
+          <t>-8,02; 10,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,29</t>
+          <t>-3,57; 3,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,62; -0,61</t>
+          <t>-13,18; -0,74</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,46</t>
+          <t>-3,39; 4,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -0,09</t>
+          <t>-9,52; 0,37</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 12,92</t>
+          <t>-7,72; 14,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 11,24</t>
+          <t>-8,35; 11,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 4,57</t>
+          <t>-3,6; 4,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -0,74</t>
+          <t>-13,32; -0,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,79</t>
+          <t>-3,5; 4,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -0,15</t>
+          <t>-9,91; 0,34</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,94</t>
+          <t>-6,75; 4,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -5,05</t>
+          <t>-16,37; -5,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -0,93</t>
+          <t>-7,96; -1,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -4,14</t>
+          <t>-12,15; -4,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,19</t>
+          <t>-6,02; -0,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -6,29</t>
+          <t>-12,66; -6,49</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 5,22</t>
+          <t>-8,51; 5,81</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -6,77</t>
+          <t>-20,31; -7,17</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,12</t>
+          <t>-9,38; -1,29</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -5,04</t>
+          <t>-14,25; -5,74</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -0,24</t>
+          <t>-7,27; -0,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -7,8</t>
+          <t>-15,16; -8,05</t>
         </is>
       </c>
     </row>
